--- a/Python todo list.xlsx
+++ b/Python todo list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twanb\Documents\NK-Schandom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C6ED2B-543C-4E5F-A3AB-97689BA1A0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315B3F06-1B7B-4CCB-A29B-5229F9F54D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CB66F5D6-BA19-40F0-99F6-F9763004E71A}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11055" xr2:uid="{CB66F5D6-BA19-40F0-99F6-F9763004E71A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Description</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Exclude impossible games player</t>
+  </si>
+  <si>
+    <t>Fix Random Seed for benchmarking</t>
+  </si>
+  <si>
+    <t>Remove Bye from matches in optimization</t>
   </si>
 </sst>
 </file>
@@ -412,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383D3F7E-7F7B-4732-B3B6-B7C96D552378}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,6 +483,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
